--- a/new_classification_db/N6 - REJECTED TRANSFER OF LEGAL REPRESENTATION.xlsx
+++ b/new_classification_db/N6 - REJECTED TRANSFER OF LEGAL REPRESENTATION.xlsx
@@ -407,14 +407,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="64.5910931174089"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.5587044534413"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.1295546558705"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.9878542510121"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.7044534412955"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.6761133603239"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/new_classification_db/N6 - REJECTED TRANSFER OF LEGAL REPRESENTATION.xlsx
+++ b/new_classification_db/N6 - REJECTED TRANSFER OF LEGAL REPRESENTATION.xlsx
@@ -401,20 +401,20 @@
   </sheetPr>
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.1295546558705"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.9878542510121"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.663967611336"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.5222672064777"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.7044534412955"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.0283400809717"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.3846153846154"/>
     <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.7813765182186"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/new_classification_db/N6 - REJECTED TRANSFER OF LEGAL REPRESENTATION.xlsx
+++ b/new_classification_db/N6 - REJECTED TRANSFER OF LEGAL REPRESENTATION.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/new_classification_db/N6 - REJECTED TRANSFER OF LEGAL REPRESENTATION.xlsx
+++ b/new_classification_db/N6 - REJECTED TRANSFER OF LEGAL REPRESENTATION.xlsx
@@ -407,14 +407,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.663967611336"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="66.1983805668016"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.0566801619433"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.3481781376518"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.8906882591093"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/new_classification_db/N6 - REJECTED TRANSFER OF LEGAL REPRESENTATION.xlsx
+++ b/new_classification_db/N6 - REJECTED TRANSFER OF LEGAL REPRESENTATION.xlsx
@@ -407,14 +407,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="66.1983805668016"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="66.8421052631579"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.5951417004049"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.668016194332"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.8906882591093"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/new_classification_db/N6 - REJECTED TRANSFER OF LEGAL REPRESENTATION.xlsx
+++ b/new_classification_db/N6 - REJECTED TRANSFER OF LEGAL REPRESENTATION.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="56">
   <si>
     <t xml:space="preserve">NOTIFICATION TYPE</t>
   </si>
@@ -314,12 +314,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -399,21 +399,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="66.8421052631579"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="67.4858299595142"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.0242914979757"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.9919028340081"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1201,72 +1202,106 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B35" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="7"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>50</v>
+      <c r="B38" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>51</v>
+      <c r="B39" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>52</v>
+      <c r="B40" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>53</v>
+      <c r="B41" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>54</v>
+      <c r="B42" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>55</v>
       </c>
     </row>
